--- a/biology/Mycologie/Rubroboletus_dupainii/Rubroboletus_dupainii.xlsx
+++ b/biology/Mycologie/Rubroboletus_dupainii/Rubroboletus_dupainii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bolet de Dupain, Bolet à chapeau laqué
 Rubroboletus dupainii, le Bolet de Dupain ou Bolet à chapeau laqué, anciennement Boletus dupainii, est une espèce rare de champignons (Fungi) basidiomycètes du genre Rubroboletus dans la famille des Boletaceae. Il est caractérisé par son chapeau et ses pores rouge vif ainsi que son pied généralement lisse sans ornementation.
@@ -512,59 +524,237 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Rubroboletus dupainii (Boud.) Kuan Zhao &amp; Zhu L.Yang[1].
-L'espèce a été initialement classée dans le genre Boletus sous le basionyme Boletus dupainii Boud. 1902[2].
-Synonymes
-Rubroboletus dupainii a pour synonymes[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Rubroboletus dupainii (Boud.) Kuan Zhao &amp; Zhu L.Yang.
+L'espèce a été initialement classée dans le genre Boletus sous le basionyme Boletus dupainii Boud. 1902.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Rubroboletus_dupainii</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rubroboletus_dupainii</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Rubroboletus dupainii a pour synonymes :
 Boletus dupainii Boud.
 Suillellus dupainii (Boud.) Blanco-Dios
 Tubiporus dupainii (Boud.) Maire
-Xerocomus dupainii (Boud.) Konrad &amp; Maubl.
-Phylogénie
-Ce bolet a été décrit scientifiquement pour la première fois par le mycologue français Jean Louis Émile Boudier en 1902[4]. Il a été transféré au nouveau genre Rubroboletus en 2014 avec plusieurs autres espèces proches de bolets bleuissants de couleur rougeâtre[5]. Phylogénétiquement, Rubroboletus dupainii est l'espèce sœur de Rubroboletus lupinus[6].
-Étymologie
-Cette espèce a été nommée en hommage à Victor Dupain, un mycologue français.
-Noms vulgaires et vernaculaires
-Ce taxon porte en français les noms vernaculaires ou normalisés suivant : Bolet de Dupain, Bolet à chapeau laqué[7][8].
+Xerocomus dupainii (Boud.) Konrad &amp; Maubl.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Rubroboletus_dupainii</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rubroboletus_dupainii</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Phylogénie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce bolet a été décrit scientifiquement pour la première fois par le mycologue français Jean Louis Émile Boudier en 1902. Il a été transféré au nouveau genre Rubroboletus en 2014 avec plusieurs autres espèces proches de bolets bleuissants de couleur rougeâtre. Phylogénétiquement, Rubroboletus dupainii est l'espèce sœur de Rubroboletus lupinus.
 </t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Rubroboletus_dupainii</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Mycologie/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Rubroboletus_dupainii</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été nommée en hommage à Victor Dupain, un mycologue français.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Rubroboletus_dupainii</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rubroboletus_dupainii</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Noms vulgaires et vernaculaires</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce taxon porte en français les noms vernaculaires ou normalisés suivant : Bolet de Dupain, Bolet à chapeau laqué.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Rubroboletus_dupainii</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rubroboletus_dupainii</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Les bolets sont des champignons dont l’hyménium, constitué de tubes et terminés par des pores, se sépare facilement de la chair du chapeau. Ce chapeau d'abord rond, recouvert d'une cuticule, devient convexe à mesure qu’il vieillit. Ils ont un pied (stipe) central assez épais et une chair compacte. Les caractéristiques morphologiques de Rubroboletus dupainii sont les suivantes :
-Son chapeau mesure généralement jusqu'à 12 cm de diamètre[9]. Il est lisse, visqueux et d'apparence laquée, de couleur rouge sang à rouge orangé[10], parfois avec une marge blanche au bord.
-Son hyménophore présente des pores de couleur rouge orangé à rouge sang vif[9],[10], souvent moins rouges vers la marge.
-Son stipe peut atteindre 10 cm de haut pour 5 cm de diamètre[9]. Il est brun rougeâtre presque entièrement ponctué, légèrement réticulé au sommet[10].
-Sa chair est jaune pâle et vire au bleu en s'oxydant. Elle dégage une odeur fruitée et est réputée avoir une saveur douce[11].
-Caractéristiques microscopiques
-Les spores de ce champignon mesurent de 11 à 14,5  μm sur 3,5 à 5 μm[10].
+Son chapeau mesure généralement jusqu'à 12 cm de diamètre. Il est lisse, visqueux et d'apparence laquée, de couleur rouge sang à rouge orangé, parfois avec une marge blanche au bord.
+Son hyménophore présente des pores de couleur rouge orangé à rouge sang vif souvent moins rouges vers la marge.
+Son stipe peut atteindre 10 cm de haut pour 5 cm de diamètre. Il est brun rougeâtre presque entièrement ponctué, légèrement réticulé au sommet.
+Sa chair est jaune pâle et vire au bleu en s'oxydant. Elle dégage une odeur fruitée et est réputée avoir une saveur douce.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Rubroboletus_dupainii</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rubroboletus_dupainii</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Caractéristiques microscopiques</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les spores de ce champignon mesurent de 11 à 14,5  μm sur 3,5 à 5 μm.
 </t>
         </is>
       </c>
